--- a/build/config/excel/NPC.xlsx
+++ b/build/config/excel/NPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\Squick\build\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\i0gan\squick\build\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A13AC8-E48A-4FA3-913B-CDEE5CB7913D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6413A706-189E-41A9-BDB1-6C558C6F7CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="889" yWindow="3356" windowWidth="31167" windowHeight="14187" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="614" windowWidth="32281" windowHeight="19533" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t>CooldownRecord</t>
   </si>
   <si>
-    <t>Assets/HotUpdateResources/Prefab/Object/DefaultObject.prefab</t>
+    <t>Assets/HotUpdate/Prefab/Object/DefaultObject.prefab</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,25 +601,19 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,11 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.05" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1017,7 @@
     <col min="28" max="28" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1290,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1379,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1468,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1735,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1824,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="4" customFormat="1" ht="90.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" s="4" customFormat="1" ht="90.2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
@@ -1904,7 +1898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1982,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2216,205 +2210,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J15" s="18"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="S15" s="12"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="AC15" s="28"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J16" s="18"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="S16" s="12"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="27"/>
+      <c r="AC16" s="28"/>
     </row>
-    <row r="17" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J17" s="18"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="S17" s="12"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="AC17" s="28"/>
     </row>
-    <row r="18" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J18" s="18"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="S18" s="12"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="AC18" s="28"/>
     </row>
-    <row r="19" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J19" s="18"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="S19" s="12"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="AC19" s="28"/>
     </row>
-    <row r="20" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J20" s="18"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="S20" s="12"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="AC20" s="28"/>
     </row>
-    <row r="21" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J21" s="18"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="S21" s="12"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="AC21" s="28"/>
     </row>
-    <row r="22" spans="10:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:29" x14ac:dyDescent="0.25">
       <c r="J22" s="18"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="S22" s="12"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="AC22" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
